--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -47,7 +47,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +62,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00eeeeee"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fffec8"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -105,19 +110,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -133,6 +138,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,7 +538,7 @@
     <col width="14.4" customWidth="1" style="5" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="5" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="25.2" customWidth="1" style="6" min="10" max="10"/>
+    <col width="24" customWidth="1" style="6" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,47 +630,47 @@
         </is>
       </c>
       <c r="J2" s="12" t="n">
-        <v>0.8455408391869125</v>
+        <v>0.2392656284834419</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>K2</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="9" t="n">
         <v>8611</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="9" t="n">
         <v>28251</v>
       </c>
-      <c r="D3" s="15" t="d">
+      <c r="D3" s="10" t="d">
         <v>1954-07-31T00:00:00</v>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="11" t="n">
         <v>27.9882</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="11" t="n">
         <v>76.5133</v>
       </c>
-      <c r="I3" s="13" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J3" s="17" t="n">
-        <v>0.005903548330655428</v>
+      <c r="J3" s="12" t="n">
+        <v>0.6000435033298628</v>
       </c>
     </row>
     <row r="4">
@@ -690,47 +710,47 @@
         </is>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.6609125460036304</v>
+        <v>0.8111589742407408</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>Lhotse</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="9" t="n">
         <v>8516</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="9" t="n">
         <v>27940</v>
       </c>
-      <c r="D5" s="15" t="d">
+      <c r="D5" s="10" t="d">
         <v>1956-05-18T00:00:00</v>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="11" t="n">
         <v>27.9884</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="11" t="n">
         <v>86.93300000000001</v>
       </c>
-      <c r="I5" s="13" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J5" s="17" t="n">
-        <v>0.3021757716585873</v>
+      <c r="J5" s="12" t="n">
+        <v>0.6438482416484957</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +790,7 @@
         </is>
       </c>
       <c r="J6" s="12" t="n">
-        <v>0.5879314499682721</v>
+        <v>0.9808323703970402</v>
       </c>
     </row>
     <row r="7">
@@ -810,47 +830,47 @@
         </is>
       </c>
       <c r="J7" s="17" t="n">
-        <v>0.9967813009764577</v>
+        <v>0.4462072299233958</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Dhaulagiri I</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="19" t="n">
         <v>8167</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="19" t="n">
         <v>26795</v>
       </c>
-      <c r="D8" s="10" t="d">
+      <c r="D8" s="20" t="d">
         <v>1960-05-13T00:00:00</v>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="18" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="21" t="n">
         <v>27.9887</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="21" t="n">
         <v>83.4875</v>
       </c>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="I8" s="18" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J8" s="12" t="n">
-        <v>0.7171302064814374</v>
+      <c r="J8" s="22" t="n">
+        <v>0.2327624508572055</v>
       </c>
     </row>
     <row r="9">
@@ -890,47 +910,47 @@
         </is>
       </c>
       <c r="J9" s="17" t="n">
-        <v>0.9444575489753664</v>
+        <v>0.9009246305062621</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="18" t="inlineStr">
         <is>
           <t>Nanga Parbat</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="19" t="n">
         <v>8126</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="19" t="n">
         <v>26660</v>
       </c>
-      <c r="D10" s="10" t="d">
+      <c r="D10" s="20" t="d">
         <v>1953-07-03T00:00:00</v>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="18" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F10" s="18" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="21" t="n">
         <v>27.9889</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="21" t="n">
         <v>74.58920000000001</v>
       </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="I10" s="18" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J10" s="12" t="n">
-        <v>0.4440205281606925</v>
+      <c r="J10" s="22" t="n">
+        <v>0.2349713489304989</v>
       </c>
     </row>
     <row r="11">
@@ -970,47 +990,47 @@
         </is>
       </c>
       <c r="J11" s="17" t="n">
-        <v>0.04880757941154334</v>
+        <v>0.3489115467435401</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Gasherbrum I</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="19" t="n">
         <v>8080</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="19" t="n">
         <v>26509</v>
       </c>
-      <c r="D12" s="10" t="d">
+      <c r="D12" s="20" t="d">
         <v>1958-07-05T00:00:00</v>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E12" s="18" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="18" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="21" t="n">
         <v>27.9891</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="21" t="n">
         <v>76.6961</v>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="I12" s="18" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J12" s="12" t="n">
-        <v>0.5992821358496242</v>
+      <c r="J12" s="22" t="n">
+        <v>0.942477458842472</v>
       </c>
     </row>
     <row r="13">
@@ -1050,47 +1070,47 @@
         </is>
       </c>
       <c r="J13" s="17" t="n">
-        <v>0.9722928009371848</v>
+        <v>0.7284803722882457</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="18" t="inlineStr">
         <is>
           <t>Gasherbrum II</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="19" t="n">
         <v>8035</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="19" t="n">
         <v>26362</v>
       </c>
-      <c r="D14" s="10" t="d">
+      <c r="D14" s="20" t="d">
         <v>1956-07-07T00:00:00</v>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="18" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="18" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="21" t="n">
         <v>27.9893</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="21" t="n">
         <v>76.6533</v>
       </c>
-      <c r="I14" s="8" t="inlineStr">
+      <c r="I14" s="18" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J14" s="12" t="n">
-        <v>0.9147516158674294</v>
+      <c r="J14" s="22" t="n">
+        <v>0.6343500559634532</v>
       </c>
     </row>
     <row r="15">
@@ -1130,47 +1150,47 @@
         </is>
       </c>
       <c r="J15" s="17" t="n">
-        <v>0.2226262019234899</v>
+        <v>0.7201252943176885</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="18" t="inlineStr">
         <is>
           <t>Gyachung Kang</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="19" t="n">
         <v>7952</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="19" t="n">
         <v>26089</v>
       </c>
-      <c r="D16" s="10" t="d">
+      <c r="D16" s="20" t="d">
         <v>1964-04-10T00:00:00</v>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="18" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="18" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="21" t="n">
         <v>27.9895</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="21" t="n">
         <v>86.74250000000001</v>
       </c>
-      <c r="I16" s="8" t="inlineStr">
+      <c r="I16" s="18" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J16" s="12" t="n">
-        <v>0.7357083669531733</v>
+      <c r="J16" s="22" t="n">
+        <v>0.015125715057422</v>
       </c>
     </row>
     <row r="17">
@@ -1210,47 +1230,47 @@
         </is>
       </c>
       <c r="J17" s="17" t="n">
-        <v>0.2230409003474983</v>
+        <v>0.9275685457628304</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="18" t="inlineStr">
         <is>
           <t>Gasherbrum III</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="19" t="n">
         <v>7946</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="19" t="n">
         <v>26070</v>
       </c>
-      <c r="D18" s="10" t="d">
+      <c r="D18" s="20" t="d">
         <v>1975-08-11T00:00:00</v>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E18" s="18" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="18" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="21" t="n">
         <v>27.9897</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="21" t="n">
         <v>76.565</v>
       </c>
-      <c r="I18" s="8" t="inlineStr">
+      <c r="I18" s="18" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J18" s="12" t="n">
-        <v>0.1457618712190435</v>
+      <c r="J18" s="22" t="n">
+        <v>0.3350614786476862</v>
       </c>
     </row>
     <row r="19">
@@ -1290,47 +1310,47 @@
         </is>
       </c>
       <c r="J19" s="17" t="n">
-        <v>0.4678635542811362</v>
+        <v>0.3032857816867014</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>Himalchuli</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="19" t="n">
         <v>7893</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="19" t="n">
         <v>25896</v>
       </c>
-      <c r="D20" s="10" t="d">
+      <c r="D20" s="20" t="d">
         <v>1960-05-24T00:00:00</v>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="18" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="18" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="21" t="n">
         <v>27.9899</v>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="H20" s="21" t="n">
         <v>84.625</v>
       </c>
-      <c r="I20" s="8" t="inlineStr">
+      <c r="I20" s="18" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J20" s="12" t="n">
-        <v>0.6458986458330569</v>
+      <c r="J20" s="22" t="n">
+        <v>0.9948275301606807</v>
       </c>
     </row>
     <row r="21">
@@ -1370,47 +1390,47 @@
         </is>
       </c>
       <c r="J21" s="17" t="n">
-        <v>0.5658546148508842</v>
+        <v>0.2310321512057313</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="18" t="inlineStr">
         <is>
           <t>Ngadi Chuli</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="19" t="n">
         <v>7871</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="19" t="n">
         <v>25823</v>
       </c>
-      <c r="D22" s="10" t="d">
+      <c r="D22" s="20" t="d">
         <v>1970-04-27T00:00:00</v>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="18" t="inlineStr">
         <is>
           <t>Himalayas</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F22" s="18" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="21" t="n">
         <v>27.9901</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="21" t="n">
         <v>84.62</v>
       </c>
-      <c r="I22" s="8" t="inlineStr">
+      <c r="I22" s="18" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J22" s="12" t="n">
-        <v>0.2972507682567649</v>
+      <c r="J22" s="22" t="n">
+        <v>0.2892570820320051</v>
       </c>
     </row>
     <row r="23">
@@ -1450,47 +1470,47 @@
         </is>
       </c>
       <c r="J23" s="17" t="n">
-        <v>0.3484588986980496</v>
+        <v>0.05461673431113656</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" s="18" t="inlineStr">
         <is>
           <t>Masherbrum</t>
         </is>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="19" t="n">
         <v>7821</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="19" t="n">
         <v>25659</v>
       </c>
-      <c r="D24" s="10" t="d">
+      <c r="D24" s="20" t="d">
         <v>1960-07-06T00:00:00</v>
       </c>
-      <c r="E24" s="8" t="inlineStr">
+      <c r="E24" s="18" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F24" s="18" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="21" t="n">
         <v>27.9903</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="H24" s="21" t="n">
         <v>76.33329999999999</v>
       </c>
-      <c r="I24" s="8" t="inlineStr">
+      <c r="I24" s="18" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J24" s="12" t="n">
-        <v>0.8604760040412478</v>
+      <c r="J24" s="22" t="n">
+        <v>0.6456713136355351</v>
       </c>
     </row>
     <row r="25">
@@ -1530,47 +1550,47 @@
         </is>
       </c>
       <c r="J25" s="17" t="n">
-        <v>0.01857747418567579</v>
+        <v>0.1637443354058131</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="18" t="inlineStr">
         <is>
           <t>Rakaposhi</t>
         </is>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="19" t="n">
         <v>7788</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="19" t="n">
         <v>25551</v>
       </c>
-      <c r="D26" s="10" t="d">
+      <c r="D26" s="20" t="d">
         <v>1958-06-25T00:00:00</v>
       </c>
-      <c r="E26" s="8" t="inlineStr">
+      <c r="E26" s="18" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F26" s="18" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="21" t="n">
         <v>27.9905</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="21" t="n">
         <v>74.5167</v>
       </c>
-      <c r="I26" s="8" t="inlineStr">
+      <c r="I26" s="18" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J26" s="12" t="n">
-        <v>0.7922943102331964</v>
+      <c r="J26" s="22" t="n">
+        <v>0.8782971026400324</v>
       </c>
     </row>
   </sheetData>

--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -39,12 +39,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Helvetica"/>
+      <name val="Times New Roman"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <name val="Helvetica"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -61,12 +61,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eeeeee"/>
+        <fgColor rgb="00EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fffec8"/>
+        <fgColor rgb="00FFFEC8"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,7 +538,7 @@
     <col width="14.4" customWidth="1" style="5" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="5" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" style="6" min="10" max="10"/>
+    <col width="16.8" customWidth="1" style="6" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="J2" s="12" t="n">
-        <v>0.2392656284834419</v>
+        <v>0.109485</v>
       </c>
     </row>
     <row r="3">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.6000435033298628</v>
+        <v>0.765132</v>
       </c>
     </row>
     <row r="4">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.8111589742407408</v>
+        <v>0.304068</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.6438482416484957</v>
+        <v>0.523421</v>
       </c>
     </row>
     <row r="6">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="J6" s="12" t="n">
-        <v>0.9808323703970402</v>
+        <v>0.396557</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="J7" s="17" t="n">
-        <v>0.4462072299233958</v>
+        <v>0.273592</v>
       </c>
     </row>
     <row r="8">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="J8" s="22" t="n">
-        <v>0.2327624508572055</v>
+        <v>0.268625</v>
       </c>
     </row>
     <row r="9">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="J9" s="17" t="n">
-        <v>0.9009246305062621</v>
+        <v>0.017357</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="J10" s="22" t="n">
-        <v>0.2349713489304989</v>
+        <v>0.18808</v>
       </c>
     </row>
     <row r="11">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="J11" s="17" t="n">
-        <v>0.3489115467435401</v>
+        <v>0.889866</v>
       </c>
     </row>
     <row r="12">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="J12" s="22" t="n">
-        <v>0.942477458842472</v>
+        <v>0.843898</v>
       </c>
     </row>
     <row r="13">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="J13" s="17" t="n">
-        <v>0.7284803722882457</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="14">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="J14" s="22" t="n">
-        <v>0.6343500559634532</v>
+        <v>0.292024</v>
       </c>
     </row>
     <row r="15">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="J15" s="17" t="n">
-        <v>0.7201252943176885</v>
+        <v>0.47706</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="J16" s="22" t="n">
-        <v>0.015125715057422</v>
+        <v>0.878262</v>
       </c>
     </row>
     <row r="17">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="J17" s="17" t="n">
-        <v>0.9275685457628304</v>
+        <v>0.806481</v>
       </c>
     </row>
     <row r="18">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="J18" s="22" t="n">
-        <v>0.3350614786476862</v>
+        <v>0.230078</v>
       </c>
     </row>
     <row r="19">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="J19" s="17" t="n">
-        <v>0.3032857816867014</v>
+        <v>0.048044</v>
       </c>
     </row>
     <row r="20">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="J20" s="22" t="n">
-        <v>0.9948275301606807</v>
+        <v>0.106818</v>
       </c>
     </row>
     <row r="21">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="J21" s="17" t="n">
-        <v>0.2310321512057313</v>
+        <v>0.647976</v>
       </c>
     </row>
     <row r="22">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="J22" s="22" t="n">
-        <v>0.2892570820320051</v>
+        <v>0.6198900000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="J23" s="17" t="n">
-        <v>0.05461673431113656</v>
+        <v>0.8619520000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="J24" s="22" t="n">
-        <v>0.6456713136355351</v>
+        <v>0.919411</v>
       </c>
     </row>
     <row r="25">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="J25" s="17" t="n">
-        <v>0.1637443354058131</v>
+        <v>0.590913</v>
       </c>
     </row>
     <row r="26">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="J26" s="22" t="n">
-        <v>0.8782971026400324</v>
+        <v>0.183695</v>
       </c>
     </row>
   </sheetData>

--- a/test/output.xlsx
+++ b/test/output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main'!$A$1:$J$26</definedName>
